--- a/CompCars_Original/SwinBase/wronglyClassifications/Data_Full_EigenGradCAM_SwinBase_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
+++ b/CompCars_Original/SwinBase/wronglyClassifications/Data_Full_EigenGradCAM_SwinBase_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,445 +436,507 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PercActivationsOriginal</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrect</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsIncorrect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrected</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsFixed</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>background</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.1228204975423397</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.1211950553367969</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.1959261619799169</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1953672635654702</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.1228083411979171</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>back_bumper</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.006278986921731729</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.006274544983573402</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.006478766919659072</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.006423759499727112</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.006277790480437171</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>back_glass</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.007503008046518077</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.007412454869342222</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.01157571525308577</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.009313620533317319</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.007453806256318356</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>back_left_door</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.005130696340250008</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.005134595626733672</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.004955322569192789</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.004925427071945081</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.005130046096928783</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>back_left_light</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.005817699313978335</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.005828224991051532</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.005344297913752268</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.005299077238761667</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.005816715739707951</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>back_right_door</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.007181195263974905</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.007183911971322057</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.007059009009047755</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.006897769649363411</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.007177688220225679</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>back_right_light</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.007607993256012354</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.007621670660085203</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.006992840216970491</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.006988351278684445</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.007607895619163701</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>front_bumper</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.4248210956559091</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.425686478437882</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.385899759017004</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.3945885890047159</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.4250100824328106</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>front_glass</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.05163328383866194</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.05176550681085405</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.0456864416790016</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.04917976997267959</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.05170926562859419</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>front_left_door</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.003122570642697144</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.003129509434293978</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.002810492508912315</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.002805703994309613</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.003122466489900709</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>front_left_light</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.02624883005352772</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.02626523709961724</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.02551090901164685</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.02542197747999369</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.02624689574435656</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>front_right_door</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.003124617058929257</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.003122260330558247</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.003230612949077656</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.003183425499585028</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.003123590706243971</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>front_right_light</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.02704921425242124</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.02709763529954851</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.02487143591558962</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.02473348972622403</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.02704621384779244</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>hood</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.2931034172374381</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.2939063766051399</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.2569896274686935</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2472041138113607</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.292890576994385</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>left_mirror</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.0004355095180558334</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.0004331741209991734</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.0005405460139524253</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.000691743667291739</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.0004387981492317424</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>right_mirror</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.000473859423133701</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.0004733078685766404</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.0004986660648155457</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.0006073642982791513</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.0004762236688176764</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tailgate</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>0.0003769340437440667</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.0003819490522185296</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.0001513797143219204</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.0001604651215866489</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.0003771316562923881</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>0.007268436834861798</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.00708590376742842</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.01547801889877062</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.01620808287817824</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.007284316123396127</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>2.154740477350257e-06</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>2.202649297286742e-06</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>2.154740477350257e-06</v>
       </c>
     </row>
